--- a/FILMinputtemplate.xlsx
+++ b/FILMinputtemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlemingGIS_Sem1\GEOM67_PSP\GroupProject\flightplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAAF896-5115-4EAB-9BF4-C45AE5619F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F294C3-B27E-481F-8EAC-38CF937D0F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="3165" windowWidth="17280" windowHeight="8970" xr2:uid="{85D96E3D-DEF7-47FC-B7EF-B4B755E34A4E}"/>
+    <workbookView xWindow="-22620" yWindow="876" windowWidth="17280" windowHeight="8976" xr2:uid="{85D96E3D-DEF7-47FC-B7EF-B4B755E34A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Focal_Length(mm)</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>Scale_(1:  )</t>
+  </si>
+  <si>
+    <t>Coordinate1_Latitude</t>
+  </si>
+  <si>
+    <t>Coordinate2_Latitude</t>
+  </si>
+  <si>
+    <t>Coordinate3_Latitude</t>
+  </si>
+  <si>
+    <t>Coordinate4_Latitude</t>
+  </si>
+  <si>
+    <t>Coordinate1_Longtidude</t>
+  </si>
+  <si>
+    <t>Coordinate2_Longtidude</t>
+  </si>
+  <si>
+    <t>Coordinate3_Longtitude</t>
+  </si>
+  <si>
+    <t>Coordinate4_Longtitude</t>
   </si>
 </sst>
 </file>
@@ -415,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07939C65-18E1-47F1-B81E-EEDD010BEF8F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,9 +454,17 @@
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +486,32 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>152.4</v>
       </c>

--- a/FILMinputtemplate.xlsx
+++ b/FILMinputtemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlemingGIS_Sem1\GEOM67_PSP\GroupProject\flightplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F294C3-B27E-481F-8EAC-38CF937D0F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7032F2D4-FCF1-40A7-BB24-CEE53E3E972C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22620" yWindow="876" windowWidth="17280" windowHeight="8976" xr2:uid="{85D96E3D-DEF7-47FC-B7EF-B4B755E34A4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85D96E3D-DEF7-47FC-B7EF-B4B755E34A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07939C65-18E1-47F1-B81E-EEDD010BEF8F}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +533,27 @@
       <c r="G2">
         <v>25000</v>
       </c>
+      <c r="H2">
+        <v>45.523600000000002</v>
+      </c>
+      <c r="I2">
+        <v>75.600899999999996</v>
+      </c>
+      <c r="J2">
+        <v>45.323599999999999</v>
+      </c>
+      <c r="K2">
+        <v>75.600899999999996</v>
+      </c>
+      <c r="L2">
+        <v>45.323599999999999</v>
+      </c>
+      <c r="M2">
+        <v>75.750900000000001</v>
+      </c>
+      <c r="N2">
+        <v>45.523600000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
